--- a/lowe/edd/data/SIERRHWS.xlsx
+++ b/lowe/edd/data/SIERRHWS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1220,14 +1220,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH33"/>
+  <dimension ref="A1:JI33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1237,12 +1237,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44456.697581018518</v>
+        <v>44491.610081018516</v>
       </c>
     </row>
-    <row r="2" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1252,14 +1252,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1267,12 +1267,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1285,7 +1285,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2087,11 +2087,14 @@
       <c r="JG8" s="8">
         <v>44378</v>
       </c>
-      <c r="JH8" s="9">
+      <c r="JH8" s="8">
         <v>44409</v>
       </c>
+      <c r="JI8" s="9">
+        <v>44440</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -2894,8 +2897,11 @@
       <c r="JH9" s="11">
         <v>1390</v>
       </c>
+      <c r="JI9" s="11">
+        <v>1410</v>
+      </c>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3698,8 +3704,11 @@
       <c r="JH10" s="11">
         <v>1320</v>
       </c>
+      <c r="JI10" s="11">
+        <v>1350</v>
+      </c>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4502,8 +4511,11 @@
       <c r="JH11" s="11">
         <v>70</v>
       </c>
+      <c r="JI11" s="11">
+        <v>60</v>
+      </c>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5304,10 +5316,13 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="JH12" s="12">
-        <v>0.05</v>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="JI12" s="12">
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6110,8 +6125,11 @@
       <c r="JH13" s="11">
         <v>700</v>
       </c>
+      <c r="JI13" s="11">
+        <v>720</v>
+      </c>
     </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -6914,8 +6932,11 @@
       <c r="JH14" s="11">
         <v>20</v>
       </c>
+      <c r="JI14" s="11">
+        <v>20</v>
+      </c>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7718,8 +7739,11 @@
       <c r="JH15" s="11">
         <v>680</v>
       </c>
+      <c r="JI15" s="11">
+        <v>700</v>
+      </c>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8522,8 +8546,11 @@
       <c r="JH16" s="11">
         <v>330</v>
       </c>
+      <c r="JI16" s="11">
+        <v>330</v>
+      </c>
     </row>
-    <row r="17" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9326,8 +9353,11 @@
       <c r="JH17" s="11">
         <v>40</v>
       </c>
+      <c r="JI17" s="11">
+        <v>40</v>
+      </c>
     </row>
-    <row r="18" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10130,8 +10160,11 @@
       <c r="JH18" s="11">
         <v>640</v>
       </c>
+      <c r="JI18" s="11">
+        <v>650</v>
+      </c>
     </row>
-    <row r="19" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -10934,8 +10967,11 @@
       <c r="JH19" s="11">
         <v>290</v>
       </c>
+      <c r="JI19" s="11">
+        <v>290</v>
+      </c>
     </row>
-    <row r="20" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -11738,8 +11774,11 @@
       <c r="JH20" s="11">
         <v>350</v>
       </c>
+      <c r="JI20" s="11">
+        <v>370</v>
+      </c>
     </row>
-    <row r="21" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -12542,8 +12581,11 @@
       <c r="JH21" s="11">
         <v>60</v>
       </c>
+      <c r="JI21" s="11">
+        <v>60</v>
+      </c>
     </row>
-    <row r="22" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>17</v>
       </c>
@@ -13346,8 +13388,11 @@
       <c r="JH22" s="11">
         <v>290</v>
       </c>
+      <c r="JI22" s="11">
+        <v>310</v>
+      </c>
     </row>
-    <row r="23" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>18</v>
       </c>
@@ -14150,8 +14195,11 @@
       <c r="JH23" s="11">
         <v>40</v>
       </c>
+      <c r="JI23" s="11">
+        <v>40</v>
+      </c>
     </row>
-    <row r="24" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>19</v>
       </c>
@@ -14954,8 +15002,11 @@
       <c r="JH24" s="11">
         <v>260</v>
       </c>
+      <c r="JI24" s="11">
+        <v>270</v>
+      </c>
     </row>
-    <row r="26" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
         <v>59</v>
       </c>
@@ -14968,7 +15019,7 @@
       <c r="H26" s="17"/>
       <c r="I26" s="16"/>
     </row>
-    <row r="27" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>15</v>
       </c>
@@ -14981,7 +15032,7 @@
       <c r="H27" s="14"/>
       <c r="I27" s="18"/>
     </row>
-    <row r="28" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>60</v>
       </c>
@@ -14994,7 +15045,7 @@
       <c r="H28" s="14"/>
       <c r="I28" s="18"/>
     </row>
-    <row r="29" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>61</v>
       </c>
@@ -15007,7 +15058,7 @@
       <c r="H29" s="14"/>
       <c r="I29" s="18"/>
     </row>
-    <row r="30" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>62</v>
       </c>
@@ -15020,7 +15071,7 @@
       <c r="H30" s="14"/>
       <c r="I30" s="18"/>
     </row>
-    <row r="31" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>63</v>
       </c>
@@ -15033,7 +15084,7 @@
       <c r="H31" s="14"/>
       <c r="I31" s="18"/>
     </row>
-    <row r="32" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>64</v>
       </c>

--- a/lowe/edd/data/SIERRHWS.xlsx
+++ b/lowe/edd/data/SIERRHWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1220,7 +1220,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JI33"/>
+  <dimension ref="A1:JJ33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1237,12 +1237,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44491.610081018516</v>
+        <v>44519.49428240741</v>
       </c>
     </row>
-    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1252,14 +1252,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1267,12 +1267,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1285,7 +1285,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2090,11 +2090,14 @@
       <c r="JH8" s="8">
         <v>44409</v>
       </c>
-      <c r="JI8" s="9">
+      <c r="JI8" s="8">
         <v>44440</v>
       </c>
+      <c r="JJ8" s="9">
+        <v>44470</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -2900,8 +2903,11 @@
       <c r="JI9" s="11">
         <v>1410</v>
       </c>
+      <c r="JJ9" s="11">
+        <v>1390</v>
+      </c>
     </row>
-    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3707,8 +3713,11 @@
       <c r="JI10" s="11">
         <v>1350</v>
       </c>
+      <c r="JJ10" s="11">
+        <v>1330</v>
+      </c>
     </row>
-    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4514,8 +4523,11 @@
       <c r="JI11" s="11">
         <v>60</v>
       </c>
+      <c r="JJ11" s="11">
+        <v>60</v>
+      </c>
     </row>
-    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5321,8 +5333,11 @@
       <c r="JI12" s="12">
         <v>4.2999999999999997E-2</v>
       </c>
+      <c r="JJ12" s="12">
+        <v>4.2999999999999997E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6128,8 +6143,11 @@
       <c r="JI13" s="11">
         <v>720</v>
       </c>
+      <c r="JJ13" s="11">
+        <v>700</v>
+      </c>
     </row>
-    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -6935,8 +6953,11 @@
       <c r="JI14" s="11">
         <v>20</v>
       </c>
+      <c r="JJ14" s="11">
+        <v>20</v>
+      </c>
     </row>
-    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7742,8 +7763,11 @@
       <c r="JI15" s="11">
         <v>700</v>
       </c>
+      <c r="JJ15" s="11">
+        <v>680</v>
+      </c>
     </row>
-    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8549,8 +8573,11 @@
       <c r="JI16" s="11">
         <v>330</v>
       </c>
+      <c r="JJ16" s="11">
+        <v>320</v>
+      </c>
     </row>
-    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9356,8 +9383,11 @@
       <c r="JI17" s="11">
         <v>40</v>
       </c>
+      <c r="JJ17" s="11">
+        <v>40</v>
+      </c>
     </row>
-    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10163,8 +10193,11 @@
       <c r="JI18" s="11">
         <v>650</v>
       </c>
+      <c r="JJ18" s="11">
+        <v>640</v>
+      </c>
     </row>
-    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -10970,8 +11003,11 @@
       <c r="JI19" s="11">
         <v>290</v>
       </c>
+      <c r="JJ19" s="11">
+        <v>280</v>
+      </c>
     </row>
-    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -11777,8 +11813,11 @@
       <c r="JI20" s="11">
         <v>370</v>
       </c>
+      <c r="JJ20" s="11">
+        <v>370</v>
+      </c>
     </row>
-    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -12584,8 +12623,11 @@
       <c r="JI21" s="11">
         <v>60</v>
       </c>
+      <c r="JJ21" s="11">
+        <v>50</v>
+      </c>
     </row>
-    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>17</v>
       </c>
@@ -13391,8 +13433,11 @@
       <c r="JI22" s="11">
         <v>310</v>
       </c>
+      <c r="JJ22" s="11">
+        <v>310</v>
+      </c>
     </row>
-    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>18</v>
       </c>
@@ -14198,8 +14243,11 @@
       <c r="JI23" s="11">
         <v>40</v>
       </c>
+      <c r="JJ23" s="11">
+        <v>40</v>
+      </c>
     </row>
-    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>19</v>
       </c>
@@ -15005,8 +15053,11 @@
       <c r="JI24" s="11">
         <v>270</v>
       </c>
+      <c r="JJ24" s="11">
+        <v>280</v>
+      </c>
     </row>
-    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
         <v>59</v>
       </c>
@@ -15019,7 +15070,7 @@
       <c r="H26" s="17"/>
       <c r="I26" s="16"/>
     </row>
-    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>15</v>
       </c>
@@ -15032,7 +15083,7 @@
       <c r="H27" s="14"/>
       <c r="I27" s="18"/>
     </row>
-    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>60</v>
       </c>
@@ -15045,7 +15096,7 @@
       <c r="H28" s="14"/>
       <c r="I28" s="18"/>
     </row>
-    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>61</v>
       </c>
@@ -15058,7 +15109,7 @@
       <c r="H29" s="14"/>
       <c r="I29" s="18"/>
     </row>
-    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>62</v>
       </c>
@@ -15071,7 +15122,7 @@
       <c r="H30" s="14"/>
       <c r="I30" s="18"/>
     </row>
-    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>63</v>
       </c>
@@ -15084,7 +15135,7 @@
       <c r="H31" s="14"/>
       <c r="I31" s="18"/>
     </row>
-    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>64</v>
       </c>

--- a/lowe/edd/data/SIERRHWS.xlsx
+++ b/lowe/edd/data/SIERRHWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1220,7 +1220,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ33"/>
+  <dimension ref="A1:JL33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1237,12 +1237,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44519.49428240741</v>
+        <v>44582.472731481481</v>
       </c>
     </row>
-    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1252,14 +1252,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1267,12 +1267,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1285,7 +1285,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2093,11 +2093,17 @@
       <c r="JI8" s="8">
         <v>44440</v>
       </c>
-      <c r="JJ8" s="9">
+      <c r="JJ8" s="8">
         <v>44470</v>
       </c>
+      <c r="JK8" s="8">
+        <v>44501</v>
+      </c>
+      <c r="JL8" s="9">
+        <v>44531</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -2906,8 +2912,14 @@
       <c r="JJ9" s="11">
         <v>1390</v>
       </c>
+      <c r="JK9" s="11">
+        <v>1360</v>
+      </c>
+      <c r="JL9" s="11">
+        <v>1340</v>
+      </c>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3716,8 +3728,14 @@
       <c r="JJ10" s="11">
         <v>1330</v>
       </c>
+      <c r="JK10" s="11">
+        <v>1300</v>
+      </c>
+      <c r="JL10" s="11">
+        <v>1290</v>
+      </c>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4526,8 +4544,14 @@
       <c r="JJ11" s="11">
         <v>60</v>
       </c>
+      <c r="JK11" s="11">
+        <v>60</v>
+      </c>
+      <c r="JL11" s="11">
+        <v>50</v>
+      </c>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5336,8 +5360,14 @@
       <c r="JJ12" s="12">
         <v>4.2999999999999997E-2</v>
       </c>
+      <c r="JK12" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="JL12" s="12">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6146,8 +6176,14 @@
       <c r="JJ13" s="11">
         <v>700</v>
       </c>
+      <c r="JK13" s="11">
+        <v>670</v>
+      </c>
+      <c r="JL13" s="11">
+        <v>650</v>
+      </c>
     </row>
-    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -6956,8 +6992,14 @@
       <c r="JJ14" s="11">
         <v>20</v>
       </c>
+      <c r="JK14" s="11">
+        <v>20</v>
+      </c>
+      <c r="JL14" s="11">
+        <v>20</v>
+      </c>
     </row>
-    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7766,8 +7808,14 @@
       <c r="JJ15" s="11">
         <v>680</v>
       </c>
+      <c r="JK15" s="11">
+        <v>650</v>
+      </c>
+      <c r="JL15" s="11">
+        <v>630</v>
+      </c>
     </row>
-    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8576,8 +8624,14 @@
       <c r="JJ16" s="11">
         <v>320</v>
       </c>
+      <c r="JK16" s="11">
+        <v>270</v>
+      </c>
+      <c r="JL16" s="11">
+        <v>270</v>
+      </c>
     </row>
-    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9386,8 +9440,14 @@
       <c r="JJ17" s="11">
         <v>40</v>
       </c>
+      <c r="JK17" s="11">
+        <v>40</v>
+      </c>
+      <c r="JL17" s="11">
+        <v>30</v>
+      </c>
     </row>
-    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10196,8 +10256,14 @@
       <c r="JJ18" s="11">
         <v>640</v>
       </c>
+      <c r="JK18" s="11">
+        <v>610</v>
+      </c>
+      <c r="JL18" s="11">
+        <v>600</v>
+      </c>
     </row>
-    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11006,8 +11072,14 @@
       <c r="JJ19" s="11">
         <v>280</v>
       </c>
+      <c r="JK19" s="11">
+        <v>240</v>
+      </c>
+      <c r="JL19" s="11">
+        <v>240</v>
+      </c>
     </row>
-    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -11816,8 +11888,14 @@
       <c r="JJ20" s="11">
         <v>370</v>
       </c>
+      <c r="JK20" s="11">
+        <v>380</v>
+      </c>
+      <c r="JL20" s="11">
+        <v>360</v>
+      </c>
     </row>
-    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -12626,8 +12704,14 @@
       <c r="JJ21" s="11">
         <v>50</v>
       </c>
+      <c r="JK21" s="11">
+        <v>50</v>
+      </c>
+      <c r="JL21" s="11">
+        <v>50</v>
+      </c>
     </row>
-    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>17</v>
       </c>
@@ -13436,8 +13520,14 @@
       <c r="JJ22" s="11">
         <v>310</v>
       </c>
+      <c r="JK22" s="11">
+        <v>330</v>
+      </c>
+      <c r="JL22" s="11">
+        <v>320</v>
+      </c>
     </row>
-    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>18</v>
       </c>
@@ -14246,8 +14336,14 @@
       <c r="JJ23" s="11">
         <v>40</v>
       </c>
+      <c r="JK23" s="11">
+        <v>40</v>
+      </c>
+      <c r="JL23" s="11">
+        <v>40</v>
+      </c>
     </row>
-    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>19</v>
       </c>
@@ -15056,8 +15152,14 @@
       <c r="JJ24" s="11">
         <v>280</v>
       </c>
+      <c r="JK24" s="11">
+        <v>290</v>
+      </c>
+      <c r="JL24" s="11">
+        <v>280</v>
+      </c>
     </row>
-    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
         <v>59</v>
       </c>
@@ -15070,7 +15172,7 @@
       <c r="H26" s="17"/>
       <c r="I26" s="16"/>
     </row>
-    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>15</v>
       </c>
@@ -15083,7 +15185,7 @@
       <c r="H27" s="14"/>
       <c r="I27" s="18"/>
     </row>
-    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>60</v>
       </c>
@@ -15096,7 +15198,7 @@
       <c r="H28" s="14"/>
       <c r="I28" s="18"/>
     </row>
-    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>61</v>
       </c>
@@ -15109,7 +15211,7 @@
       <c r="H29" s="14"/>
       <c r="I29" s="18"/>
     </row>
-    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>62</v>
       </c>
@@ -15122,7 +15224,7 @@
       <c r="H30" s="14"/>
       <c r="I30" s="18"/>
     </row>
-    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>63</v>
       </c>
@@ -15135,7 +15237,7 @@
       <c r="H31" s="14"/>
       <c r="I31" s="18"/>
     </row>
-    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>64</v>
       </c>
